--- a/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_20_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
+++ b/results/GammaPowerElectronGaussian/gamma_Power_10_10000_keV_alpha_-3_intensity_20_electron_Gauss_600_600_keV_intensity_1_R_30_cm_Nr_2000000000_ISO_model_det1_det2 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.01460158781558758</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9152818463383976</v>
+        <v>0.9151854483539027</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8660551704682758</v>
+        <v>0.8658345546211174</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9677621335314025</v>
+        <v>0.9670093131126215</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1877068179105975</v>
+        <v>0.1876830258619854</v>
       </c>
       <c r="J2" t="n">
-        <v>0.180910789573569</v>
+        <v>0.1807375700009971</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1946180455259144</v>
+        <v>0.1945740730343211</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01443364069153913</v>
+        <v>0.01443205858497879</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01390832810658972</v>
+        <v>0.01389967914835376</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01497546015420423</v>
+        <v>0.01497168280000869</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.0008208621901252787</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003611637257906232</v>
+        <v>0.003612042633664875</v>
       </c>
       <c r="G3" t="n">
-        <v>0.003081711837822534</v>
+        <v>0.003082788764536787</v>
       </c>
       <c r="H3" t="n">
-        <v>0.004216793646820998</v>
+        <v>0.004202696255266691</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003343972159404696</v>
+        <v>0.003344351261387352</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002854733788781063</v>
+        <v>0.002855709544016387</v>
       </c>
       <c r="K3" t="n">
-        <v>0.003899458570874029</v>
+        <v>0.003886308270698591</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003770732196011638</v>
+        <v>0.003771148930728926</v>
       </c>
       <c r="M3" t="n">
-        <v>0.003231009810717095</v>
+        <v>0.003232159660308953</v>
       </c>
       <c r="N3" t="n">
-        <v>0.004385326911538147</v>
+        <v>0.00437120910540068</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.01542245000571286</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9188934835963039</v>
+        <v>0.9187974909875676</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8691368823060983</v>
+        <v>0.8689173433856543</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9719789271782235</v>
+        <v>0.9712120093678881</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1910507900700022</v>
+        <v>0.1910273771233728</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1837655233623501</v>
+        <v>0.1835932795450135</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1985175040967884</v>
+        <v>0.1984603813050198</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01820437288755077</v>
+        <v>0.01820320751570771</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01713933791730682</v>
+        <v>0.01713183880866271</v>
       </c>
       <c r="N4" t="n">
-        <v>0.01936078706574238</v>
+        <v>0.01934289190540937</v>
       </c>
     </row>
   </sheetData>
